--- a/index.xlsx
+++ b/index.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB1A832-F00B-3443-8494-51C50D838CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CBE35A-A413-5149-872E-51EDE37402BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32460" yWindow="10020" windowWidth="19200" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24000" yWindow="4820" windowWidth="21040" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,285 +17,165 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
-  <si>
-    <t>水位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+  <si>
+    <t>长春锅炉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电接点</t>
+  </si>
+  <si>
+    <t>平衡容器</t>
+  </si>
+  <si>
+    <t>液位计</t>
+  </si>
+  <si>
+    <t>电极</t>
+  </si>
+  <si>
+    <t>玻璃管</t>
+  </si>
+  <si>
+    <t>无盲区</t>
+  </si>
+  <si>
+    <t>石英管</t>
+  </si>
+  <si>
+    <t>取样管</t>
   </si>
   <si>
     <t>云母</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电接点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电视</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>液位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电极</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火焰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>液面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>磁翻板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>探头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管式</t>
+  </si>
+  <si>
+    <t>气源过滤</t>
+  </si>
+  <si>
+    <t>视窗玻璃</t>
+  </si>
+  <si>
+    <t>板式</t>
+  </si>
+  <si>
+    <t>水位计</t>
+  </si>
+  <si>
+    <t>密封组件</t>
+  </si>
+  <si>
+    <t>磁翻</t>
+  </si>
+  <si>
+    <t>镜管</t>
+  </si>
+  <si>
+    <t>发光条</t>
+  </si>
+  <si>
+    <t>磁浮</t>
+  </si>
+  <si>
+    <t>汽水阀门</t>
+  </si>
+  <si>
+    <t>水位表</t>
+  </si>
+  <si>
+    <t>浮子</t>
+  </si>
+  <si>
+    <t>炉管泄漏</t>
   </si>
   <si>
     <t>物位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石英</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>磁浮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>镜管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炉膛</t>
+  </si>
+  <si>
+    <t>磁致伸缩</t>
+  </si>
+  <si>
+    <t>料位</t>
+  </si>
+  <si>
+    <t>流量测量</t>
+  </si>
+  <si>
+    <t>汽包水位系统</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>粉位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>磁性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>监视</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>料位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>板式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浮球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>监测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锅炉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浮子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>监控</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仪表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>视窗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平衡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>视频</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汽包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玻璃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>容器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>摄像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密封</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石墨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接线柱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>气源过滤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>热控</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二极管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>压盖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阀门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法兰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>气阀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>螺栓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>节流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炉管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水阀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>螺柱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽包火焰系统</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>孔板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炉膛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红外</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>螺母</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喷嘴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泄漏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变送器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铜垫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无盲区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取样</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>远传</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画面合成器</t>
+  </si>
+  <si>
+    <t>自冲洗</t>
+  </si>
+  <si>
+    <t>长径喷嘴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内窥式光学</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强冲洗</t>
+  </si>
+  <si>
+    <t>水位电视</t>
+  </si>
+  <si>
+    <t>工业电视</t>
+  </si>
+  <si>
+    <t>冲洗式</t>
+  </si>
+  <si>
+    <t>汽包电视</t>
+  </si>
+  <si>
+    <t>水位控制</t>
+  </si>
+  <si>
+    <t>磁性浮子</t>
+  </si>
+  <si>
+    <t>汽包监视</t>
+  </si>
+  <si>
+    <t>火焰控制</t>
+  </si>
+  <si>
+    <t>光源总成</t>
+  </si>
+  <si>
+    <t>火焰探头</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,6 +197,12 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -380,8 +266,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -723,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -733,242 +619,208 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" ht="30" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="30" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="30" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="30" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" customHeight="1">
-      <c r="A4" s="1" t="s">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="30" customHeight="1">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="30" customHeight="1">
+      <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" customHeight="1">
-      <c r="A5" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="30" customHeight="1">
+      <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" customHeight="1">
-      <c r="A6" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="30" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" customHeight="1">
-      <c r="A7" s="1" t="s">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="30" customHeight="1">
+      <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="30" customHeight="1">
+      <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" customHeight="1">
-      <c r="A8" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>39</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="30" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" ht="30" customHeight="1">
+      <c r="A14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" ht="30" customHeight="1">
+      <c r="A15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="30" customHeight="1">
-      <c r="A13" s="1" t="s">
+      <c r="C15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" ht="30" customHeight="1">
+      <c r="A16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" customHeight="1">
-      <c r="A14" s="1" t="s">
+      <c r="C16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" ht="30" customHeight="1">
+      <c r="A17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="B17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" customHeight="1">
-      <c r="A17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="D17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/index.xlsx
+++ b/index.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CBE35A-A413-5149-872E-51EDE37402BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C321C08B-37CF-0E4B-86DF-64618C58ECDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24000" yWindow="4820" windowWidth="21040" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11420" yWindow="2180" windowWidth="21040" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>长春锅炉</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -32,150 +32,421 @@
     <t>液位计</t>
   </si>
   <si>
-    <t>电极</t>
-  </si>
-  <si>
     <t>玻璃管</t>
   </si>
   <si>
     <t>无盲区</t>
   </si>
   <si>
+    <t>取样管</t>
+  </si>
+  <si>
+    <t>云母</t>
+  </si>
+  <si>
+    <t>气源过滤</t>
+  </si>
+  <si>
+    <t>视窗玻璃</t>
+  </si>
+  <si>
+    <t>水位计</t>
+  </si>
+  <si>
+    <t>磁翻</t>
+  </si>
+  <si>
+    <t>镜管</t>
+  </si>
+  <si>
+    <t>发光条</t>
+  </si>
+  <si>
+    <t>磁浮</t>
+  </si>
+  <si>
+    <t>汽水阀门</t>
+  </si>
+  <si>
+    <t>水位表</t>
+  </si>
+  <si>
+    <t>浮子</t>
+  </si>
+  <si>
+    <t>炉管泄漏</t>
+  </si>
+  <si>
+    <t>炉膛</t>
+  </si>
+  <si>
+    <t>磁致伸缩</t>
+  </si>
+  <si>
+    <t>流量测量</t>
+  </si>
+  <si>
+    <t>汽包水位系统</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>节流</t>
+  </si>
+  <si>
+    <t>汽包火焰系统</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔板</t>
+  </si>
+  <si>
+    <t>画面合成器</t>
+  </si>
+  <si>
+    <t>长径喷嘴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内窥式光学</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水位电视</t>
+  </si>
+  <si>
+    <t>工业电视</t>
+  </si>
+  <si>
+    <t>汽包电视</t>
+  </si>
+  <si>
+    <t>水位控制</t>
+  </si>
+  <si>
+    <t>磁性浮子</t>
+  </si>
+  <si>
+    <t>汽包监视</t>
+  </si>
+  <si>
+    <t>火焰控制</t>
+  </si>
+  <si>
+    <t>光源总成</t>
+  </si>
+  <si>
+    <t>火焰探头</t>
+  </si>
+  <si>
+    <t>压入式电极</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋入式电极</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>缠绕式电极</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电极压入</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰电视</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电极旋入</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽包密封组件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电极缠绕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>电极D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QS</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>电极D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JY</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>电极D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JM</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>电极2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃板液位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>电极2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃板水位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>电极1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>板式液位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电极17</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>画面分割器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>板式水位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>电极1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>管式液位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>电极D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>22</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>管式水位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>电极D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>26</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>板式双色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>电极D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰镜头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>板式单色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>电极D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰小镜头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>管式双色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>电极D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>管式单色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>石英管</t>
-  </si>
-  <si>
-    <t>取样管</t>
-  </si>
-  <si>
-    <t>云母</t>
-  </si>
-  <si>
-    <t>管式</t>
-  </si>
-  <si>
-    <t>气源过滤</t>
-  </si>
-  <si>
-    <t>视窗玻璃</t>
-  </si>
-  <si>
-    <t>板式</t>
-  </si>
-  <si>
-    <t>水位计</t>
-  </si>
-  <si>
-    <t>密封组件</t>
-  </si>
-  <si>
-    <t>磁翻</t>
-  </si>
-  <si>
-    <t>镜管</t>
-  </si>
-  <si>
-    <t>发光条</t>
-  </si>
-  <si>
-    <t>磁浮</t>
-  </si>
-  <si>
-    <t>汽水阀门</t>
-  </si>
-  <si>
-    <t>水位表</t>
-  </si>
-  <si>
-    <t>浮子</t>
-  </si>
-  <si>
-    <t>炉管泄漏</t>
-  </si>
-  <si>
-    <t>物位</t>
-  </si>
-  <si>
-    <t>炉膛</t>
-  </si>
-  <si>
-    <t>磁致伸缩</t>
-  </si>
-  <si>
-    <t>料位</t>
-  </si>
-  <si>
-    <t>流量测量</t>
-  </si>
-  <si>
-    <t>汽包水位系统</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>粉位</t>
-  </si>
-  <si>
-    <t>节流</t>
-  </si>
-  <si>
-    <t>汽包火焰系统</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>孔板</t>
-  </si>
-  <si>
-    <t>画面合成器</t>
-  </si>
-  <si>
-    <t>自冲洗</t>
-  </si>
-  <si>
-    <t>长径喷嘴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>内窥式光学</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>强冲洗</t>
-  </si>
-  <si>
-    <t>水位电视</t>
-  </si>
-  <si>
-    <t>工业电视</t>
-  </si>
-  <si>
-    <t>冲洗式</t>
-  </si>
-  <si>
-    <t>汽包电视</t>
-  </si>
-  <si>
-    <t>水位控制</t>
-  </si>
-  <si>
-    <t>磁性浮子</t>
-  </si>
-  <si>
-    <t>汽包监视</t>
-  </si>
-  <si>
-    <t>火焰控制</t>
-  </si>
-  <si>
-    <t>光源总成</t>
-  </si>
-  <si>
-    <t>火焰探头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>物位仪表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉位计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +474,21 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -253,7 +539,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -267,6 +553,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -607,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -635,192 +927,280 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>19</v>
+      <c r="A7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>31</v>
+        <v>15</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="30" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="30" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" ht="30" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" ht="30" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" ht="30" customHeight="1">
-      <c r="A12" s="4" t="s">
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" ht="30" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" ht="30" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" ht="30" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" ht="30" customHeight="1">
-      <c r="A14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" ht="30" customHeight="1">
-      <c r="A15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" ht="30" customHeight="1">
-      <c r="A16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" ht="30" customHeight="1">
-      <c r="A17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="1"/>
+      <c r="C24" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
